--- a/Contextual Problem Statement/ASDE_Training_USER_STORIES - 2024.xlsx
+++ b/Contextual Problem Statement/ASDE_Training_USER_STORIES - 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Virtual Training\ACE\Sapient\ASDE 2024\Contextual Problem Statement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\ACE\Sapient\ASDE 2024\Contextual Problem Statement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB75025-D0B3-4D40-98F3-DE94255F9691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AB0780-E4B8-48DD-82D7-8BD692A25BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="2" r:id="rId1"/>
@@ -793,12 +793,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -815,7 +821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,10 +861,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -867,19 +873,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -889,16 +892,37 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,18 +1411,18 @@
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
@@ -1474,18 +1498,18 @@
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
@@ -1546,18 +1570,18 @@
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2"/>
@@ -1830,21 +1854,36 @@
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B39:L39"/>
+    <mergeCell ref="B40:L40"/>
+    <mergeCell ref="B41:L41"/>
     <mergeCell ref="B42:L42"/>
     <mergeCell ref="B43:K43"/>
     <mergeCell ref="B54:L54"/>
@@ -1852,21 +1891,6 @@
     <mergeCell ref="B47:L47"/>
     <mergeCell ref="B48:L48"/>
     <mergeCell ref="B49:L49"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B39:L39"/>
-    <mergeCell ref="B40:L40"/>
-    <mergeCell ref="B41:L41"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B22:K22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2030,18 +2054,18 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2"/>
@@ -2180,18 +2204,18 @@
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2"/>
@@ -2244,21 +2268,26 @@
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:L9"/>
     <mergeCell ref="B22:K22"/>
     <mergeCell ref="B26:L26"/>
     <mergeCell ref="B27:K27"/>
@@ -2267,11 +2296,6 @@
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B9:L9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2873,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:L45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3080,32 +3104,32 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="117" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="16"/>
@@ -3123,7 +3147,7 @@
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="16"/>
@@ -3141,7 +3165,7 @@
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="16"/>
@@ -3159,7 +3183,7 @@
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="16"/>
@@ -3177,7 +3201,7 @@
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="16"/>
@@ -3195,7 +3219,7 @@
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="16"/>
@@ -3209,325 +3233,325 @@
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:12" s="30" customFormat="1">
+      <c r="A22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:12" s="30" customFormat="1">
+      <c r="A23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+    </row>
+    <row r="24" spans="1:12" s="30" customFormat="1">
+      <c r="A24" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="2" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" spans="1:12" s="30" customFormat="1">
+      <c r="A25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="2" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+    </row>
+    <row r="26" spans="1:12" s="30" customFormat="1">
+      <c r="A26" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="2" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+    </row>
+    <row r="27" spans="1:12" s="30" customFormat="1">
+      <c r="A27" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="1:12" s="30" customFormat="1">
+      <c r="A28" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+    </row>
+    <row r="29" spans="1:12" s="30" customFormat="1">
+      <c r="A29" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+    </row>
+    <row r="30" spans="1:12" s="30" customFormat="1">
+      <c r="A30" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="B31" s="18" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" spans="1:12" s="30" customFormat="1">
+      <c r="B31" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="2" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+    </row>
+    <row r="32" spans="1:12" s="30" customFormat="1">
+      <c r="A32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="2"/>
-      <c r="B33" s="18" t="s">
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+    </row>
+    <row r="33" spans="1:12" s="30" customFormat="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="2"/>
-      <c r="B34" s="18" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+    </row>
+    <row r="34" spans="1:12" s="30" customFormat="1">
+      <c r="A34" s="27"/>
+      <c r="B34" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="2"/>
-      <c r="B35" s="18" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+    </row>
+    <row r="35" spans="1:12" s="30" customFormat="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="2" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+    </row>
+    <row r="36" spans="1:12" s="30" customFormat="1">
+      <c r="A36" s="27"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+    </row>
+    <row r="37" spans="1:12" s="30" customFormat="1">
+      <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="2" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:12" s="30" customFormat="1">
+      <c r="A38" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="2" t="s">
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+    </row>
+    <row r="39" spans="1:12" s="30" customFormat="1">
+      <c r="A39" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="2" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+    </row>
+    <row r="40" spans="1:12" s="30" customFormat="1">
+      <c r="A40" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
@@ -3541,7 +3565,7 @@
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="16"/>
@@ -3559,7 +3583,7 @@
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>147</v>
       </c>
       <c r="C44" s="16"/>
@@ -3577,7 +3601,7 @@
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="16"/>
@@ -3593,20 +3617,23 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="B38:L38"/>
-    <mergeCell ref="B40:L40"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B44:L44"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B39:L39"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B19:L19"/>
     <mergeCell ref="B32:L32"/>
     <mergeCell ref="B33:L33"/>
     <mergeCell ref="B20:L20"/>
@@ -3615,23 +3642,20 @@
     <mergeCell ref="B25:L25"/>
     <mergeCell ref="B26:L26"/>
     <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B35:L35"/>
+    <mergeCell ref="B38:L38"/>
+    <mergeCell ref="B40:L40"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B44:L44"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B39:L39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3641,7 +3665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A216D230-190F-4C25-9C3F-8A47CE3732B4}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:L18"/>
     </sheetView>
   </sheetViews>
@@ -3675,19 +3699,19 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="18">
@@ -3724,7 +3748,7 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>144</v>
       </c>
       <c r="C6" s="16"/>
@@ -3760,33 +3784,33 @@
       <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:13" ht="85.8" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
@@ -3900,19 +3924,19 @@
       <c r="A16" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="1:12" ht="37.950000000000003" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -4014,8 +4038,8 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" customHeight="1">
       <c r="A24" s="2" t="s">
@@ -4032,8 +4056,8 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
@@ -4071,7 +4095,7 @@
       <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C27" s="15"/>
@@ -4114,8 +4138,8 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" customHeight="1">
       <c r="A30" s="2" t="s">
@@ -4132,8 +4156,8 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" customHeight="1">
       <c r="A31" s="2" t="s">
@@ -4171,7 +4195,7 @@
       <c r="A33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C33" s="15"/>
@@ -4203,7 +4227,7 @@
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="11" t="s">
         <v>141</v>
       </c>
       <c r="C35" s="11"/>
@@ -4214,8 +4238,8 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
     </row>
     <row r="36" spans="1:12" ht="16.95" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -4232,8 +4256,8 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -4287,7 +4311,7 @@
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="12"/>
@@ -4411,18 +4435,18 @@
       <c r="A49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="7" t="s">
@@ -4487,11 +4511,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B52:L52"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B41:L41"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:L9"/>
     <mergeCell ref="K23:L23"/>
@@ -4506,6 +4533,11 @@
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="B19:K19"/>
     <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B48:L48"/>
@@ -4513,14 +4545,6 @@
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="B42:L42"/>
     <mergeCell ref="B49:K49"/>
-    <mergeCell ref="B53:L53"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B41:L41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
